--- a/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="259">
   <si>
     <t>土地坐落</t>
   </si>
@@ -488,6 +488,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
@@ -516,6 +525,9 @@
   </si>
   <si>
     <t>新光合成纖维股份有限公 司</t>
+  </si>
+  <si>
+    <t>2012-02-01</t>
   </si>
   <si>
     <t>名稱</t>
@@ -3117,13 +3129,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>149</v>
       </c>
@@ -3142,13 +3154,22 @@
       <c r="G1" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -3165,13 +3186,22 @@
       <c r="G2" s="2">
         <v>783640</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
@@ -3188,13 +3218,22 @@
       <c r="G3" s="2">
         <v>6200</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
@@ -3211,13 +3250,22 @@
       <c r="G4" s="2">
         <v>8030</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
@@ -3234,13 +3282,22 @@
       <c r="G5" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
@@ -3257,13 +3314,22 @@
       <c r="G6" s="2">
         <v>28390</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
@@ -3280,13 +3346,22 @@
       <c r="G7" s="2">
         <v>38740</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>43</v>
@@ -3303,13 +3378,22 @@
       <c r="G8" s="2">
         <v>561300</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
@@ -3326,13 +3410,22 @@
       <c r="G9" s="2">
         <v>2172640</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -3349,13 +3442,22 @@
       <c r="G10" s="2">
         <v>33590</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>136</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
@@ -3371,6 +3473,15 @@
       </c>
       <c r="G11" s="2">
         <v>259920</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1713</v>
       </c>
     </row>
   </sheetData>
@@ -3388,19 +3499,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>126</v>
@@ -3411,7 +3522,7 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -3434,14 +3545,14 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3451,22 +3562,22 @@
         <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3474,7 +3585,7 @@
         <v>154</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -3503,13 +3614,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3517,10 +3628,10 @@
         <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -3531,10 +3642,10 @@
         <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
@@ -3545,10 +3656,10 @@
         <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>43</v>
@@ -3559,10 +3670,10 @@
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>43</v>
@@ -3573,10 +3684,10 @@
         <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>43</v>
@@ -3587,10 +3698,10 @@
         <v>165</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>43</v>
@@ -3601,10 +3712,10 @@
         <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>44</v>
@@ -3615,10 +3726,10 @@
         <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>44</v>
@@ -3629,10 +3740,10 @@
         <v>168</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
@@ -3643,10 +3754,10 @@
         <v>169</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>43</v>
@@ -3657,10 +3768,10 @@
         <v>170</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>43</v>
@@ -3671,10 +3782,10 @@
         <v>171</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>43</v>
@@ -3685,10 +3796,10 @@
         <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>43</v>
@@ -3699,10 +3810,10 @@
         <v>173</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>43</v>
@@ -3713,10 +3824,10 @@
         <v>174</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>44</v>
@@ -3727,10 +3838,10 @@
         <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>44</v>
@@ -3741,10 +3852,10 @@
         <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>44</v>
@@ -3755,10 +3866,10 @@
         <v>177</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>44</v>
@@ -3769,10 +3880,10 @@
         <v>178</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>44</v>
@@ -3783,10 +3894,10 @@
         <v>179</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>43</v>
@@ -3797,10 +3908,10 @@
         <v>180</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>43</v>
@@ -3811,10 +3922,10 @@
         <v>181</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>43</v>
@@ -3838,19 +3949,19 @@
         <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3858,22 +3969,22 @@
         <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E2" s="2">
         <v>75000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3881,22 +3992,22 @@
         <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E3" s="2">
         <v>209000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3904,22 +4015,22 @@
         <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E4" s="2">
         <v>13000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3927,22 +4038,22 @@
         <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3950,22 +4061,22 @@
         <v>191</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E6" s="2">
         <v>195000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3983,22 +4094,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4009,19 +4120,19 @@
         <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4032,19 +4143,19 @@
         <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4055,19 +4166,19 @@
         <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4078,19 +4189,19 @@
         <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4101,19 +4212,19 @@
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4124,19 +4235,19 @@
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4147,19 +4258,19 @@
         <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4170,19 +4281,19 @@
         <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4193,19 +4304,19 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4216,19 +4327,19 @@
         <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4239,19 +4350,19 @@
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="261">
   <si>
     <t>土地坐落</t>
   </si>
@@ -488,6 +488,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -503,28 +506,31 @@
     <t>台塑石化股份有限公司</t>
   </si>
   <si>
-    <t>南亞塑膠工業股份有限公 司</t>
+    <t>南亞塑膠工業股份有限公司</t>
   </si>
   <si>
     <t>永豐餘造紙股份有限公司</t>
   </si>
   <si>
-    <t>台新金融控股股份有限公 司</t>
-  </si>
-  <si>
-    <t>中國信託金融控股股份有 限公司</t>
-  </si>
-  <si>
-    <t>台灣苯乙烯工業股份有限 公司</t>
-  </si>
-  <si>
-    <t>第一金融控股股份有限公 司</t>
+    <t>台新金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>中國信託金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣苯乙烯工業股份有限公司</t>
+  </si>
+  <si>
+    <t>第一金融控股股份有限公司</t>
   </si>
   <si>
     <t>聯華實業股份有限公司</t>
   </si>
   <si>
-    <t>新光合成纖维股份有限公 司</t>
+    <t>新光合成纖维股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-02-01</t>
@@ -3129,13 +3135,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>149</v>
       </c>
@@ -3163,13 +3169,16 @@
       <c r="J1" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -3187,21 +3196,24 @@
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="2">
+        <v>170</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
@@ -3219,21 +3231,24 @@
         <v>6200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="2">
+        <v>170</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
@@ -3251,21 +3266,24 @@
         <v>8030</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="2">
+        <v>170</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
@@ -3283,21 +3301,24 @@
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="2">
+        <v>170</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
@@ -3315,21 +3336,24 @@
         <v>28390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="2">
+        <v>170</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
@@ -3347,21 +3371,24 @@
         <v>38740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="2">
+        <v>170</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>43</v>
@@ -3379,21 +3406,24 @@
         <v>561300</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="2">
+        <v>170</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
@@ -3411,21 +3441,24 @@
         <v>2172640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="2">
+        <v>170</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -3443,21 +3476,24 @@
         <v>33590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="2">
+        <v>170</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="2">
         <v>1713</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>136</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
@@ -3475,12 +3511,15 @@
         <v>259920</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="2">
+        <v>170</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="2">
         <v>1713</v>
       </c>
     </row>
@@ -3499,19 +3538,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>126</v>
@@ -3522,7 +3561,7 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -3545,14 +3584,14 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3562,22 +3601,22 @@
         <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3585,7 +3624,7 @@
         <v>154</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -3614,13 +3653,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3628,10 +3667,10 @@
         <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -3642,10 +3681,10 @@
         <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
@@ -3656,10 +3695,10 @@
         <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>43</v>
@@ -3670,10 +3709,10 @@
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>43</v>
@@ -3684,10 +3723,10 @@
         <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>43</v>
@@ -3698,10 +3737,10 @@
         <v>165</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>43</v>
@@ -3712,10 +3751,10 @@
         <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>44</v>
@@ -3726,10 +3765,10 @@
         <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>44</v>
@@ -3740,10 +3779,10 @@
         <v>168</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
@@ -3754,10 +3793,10 @@
         <v>169</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>43</v>
@@ -3768,10 +3807,10 @@
         <v>170</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>43</v>
@@ -3782,10 +3821,10 @@
         <v>171</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>43</v>
@@ -3796,10 +3835,10 @@
         <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>43</v>
@@ -3810,10 +3849,10 @@
         <v>173</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>43</v>
@@ -3824,10 +3863,10 @@
         <v>174</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>44</v>
@@ -3838,10 +3877,10 @@
         <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>44</v>
@@ -3852,10 +3891,10 @@
         <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>44</v>
@@ -3866,10 +3905,10 @@
         <v>177</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>44</v>
@@ -3880,10 +3919,10 @@
         <v>178</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>44</v>
@@ -3894,10 +3933,10 @@
         <v>179</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>43</v>
@@ -3908,10 +3947,10 @@
         <v>180</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>43</v>
@@ -3922,10 +3961,10 @@
         <v>181</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>43</v>
@@ -3949,19 +3988,19 @@
         <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3969,22 +4008,22 @@
         <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E2" s="2">
         <v>75000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3992,22 +4031,22 @@
         <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E3" s="2">
         <v>209000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4015,22 +4054,22 @@
         <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E4" s="2">
         <v>13000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4038,22 +4077,22 @@
         <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4061,22 +4100,22 @@
         <v>191</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E6" s="2">
         <v>195000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4094,22 +4133,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4120,19 +4159,19 @@
         <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4143,19 +4182,19 @@
         <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4166,19 +4205,19 @@
         <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4189,19 +4228,19 @@
         <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4212,19 +4251,19 @@
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4235,19 +4274,19 @@
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4258,19 +4297,19 @@
         <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4281,19 +4320,19 @@
         <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4304,19 +4343,19 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4327,19 +4366,19 @@
         <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4350,19 +4389,19 @@
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="266">
   <si>
     <t>土地坐落</t>
   </si>
@@ -491,6 +491,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -500,6 +503,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
@@ -533,7 +542,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-02-01</t>
+  </si>
+  <si>
+    <t>tmpbc031</t>
   </si>
   <si>
     <t>名稱</t>
@@ -3135,13 +3150,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>149</v>
       </c>
@@ -3172,13 +3187,22 @@
       <c r="K1" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -3196,24 +3220,33 @@
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="2">
+        <v>174</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N2" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
@@ -3231,24 +3264,33 @@
         <v>6200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2">
+        <v>174</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N3" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
@@ -3266,24 +3308,33 @@
         <v>8030</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="2">
+        <v>174</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N4" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
@@ -3301,24 +3352,33 @@
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="2">
+        <v>174</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N5" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
@@ -3336,24 +3396,33 @@
         <v>28390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="2">
+        <v>174</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N6" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
@@ -3371,24 +3440,33 @@
         <v>38740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="2">
+        <v>174</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N7" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>43</v>
@@ -3406,24 +3484,33 @@
         <v>561300</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="2">
+        <v>174</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N8" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
@@ -3441,24 +3528,33 @@
         <v>2172640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="2">
+        <v>174</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N9" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
@@ -3476,24 +3572,33 @@
         <v>33590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="2">
+        <v>174</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="2">
         <v>1713</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N10" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>136</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>44</v>
@@ -3511,16 +3616,25 @@
         <v>259920</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="2">
+        <v>174</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="2">
         <v>1713</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="N11" s="2">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3538,19 +3652,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>126</v>
@@ -3561,7 +3675,7 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
@@ -3584,14 +3698,14 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3601,22 +3715,22 @@
         <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>124</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3624,7 +3738,7 @@
         <v>154</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -3653,13 +3767,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3667,10 +3781,10 @@
         <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -3681,10 +3795,10 @@
         <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>43</v>
@@ -3695,10 +3809,10 @@
         <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>43</v>
@@ -3709,10 +3823,10 @@
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>43</v>
@@ -3723,10 +3837,10 @@
         <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>43</v>
@@ -3737,10 +3851,10 @@
         <v>165</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>43</v>
@@ -3751,10 +3865,10 @@
         <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>44</v>
@@ -3765,10 +3879,10 @@
         <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>44</v>
@@ -3779,10 +3893,10 @@
         <v>168</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
@@ -3793,10 +3907,10 @@
         <v>169</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>43</v>
@@ -3807,10 +3921,10 @@
         <v>170</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>43</v>
@@ -3821,10 +3935,10 @@
         <v>171</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>43</v>
@@ -3835,10 +3949,10 @@
         <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>43</v>
@@ -3849,10 +3963,10 @@
         <v>173</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>43</v>
@@ -3863,10 +3977,10 @@
         <v>174</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>44</v>
@@ -3877,10 +3991,10 @@
         <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>44</v>
@@ -3891,10 +4005,10 @@
         <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>44</v>
@@ -3905,10 +4019,10 @@
         <v>177</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>44</v>
@@ -3919,10 +4033,10 @@
         <v>178</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>44</v>
@@ -3933,10 +4047,10 @@
         <v>179</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>43</v>
@@ -3947,10 +4061,10 @@
         <v>180</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>43</v>
@@ -3961,10 +4075,10 @@
         <v>181</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>43</v>
@@ -3988,19 +4102,19 @@
         <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4008,22 +4122,22 @@
         <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E2" s="2">
         <v>75000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4031,22 +4145,22 @@
         <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E3" s="2">
         <v>209000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4054,22 +4168,22 @@
         <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E4" s="2">
         <v>13000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4077,22 +4191,22 @@
         <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4100,22 +4214,22 @@
         <v>191</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E6" s="2">
         <v>195000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -4133,22 +4247,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4159,19 +4273,19 @@
         <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4182,19 +4296,19 @@
         <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4205,19 +4319,19 @@
         <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4228,19 +4342,19 @@
         <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4251,19 +4365,19 @@
         <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4274,19 +4388,19 @@
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4297,19 +4411,19 @@
         <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4320,19 +4434,19 @@
         <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4343,19 +4457,19 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4366,19 +4480,19 @@
         <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4389,19 +4503,19 @@
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
@@ -21,9 +21,276 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="266">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="268">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄕進樂段00460000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段00460001地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉瓦厝段02820000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉瓦厝段02820001地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉忠孝段07960000地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段六小段01170000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中央段05680000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中央段05690000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中央段05720000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中央段05730000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段01110000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州郷湄洲段00330000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉肓善段08650000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄕復興段06920000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段06930006地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段06930010</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段06930012地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段06930016地號</t>
+  </si>
+  <si>
+    <t>彰化縣埤頭鄉芙朝段04320000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02240000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02250000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02280000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02420000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02510000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02520000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02530000地號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段02640000地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮大饒段05730000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>254分之25</t>
+  </si>
+  <si>
+    <t>10000分之166</t>
+  </si>
+  <si>
+    <t>64分之17</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>2023分之163</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>2160分之585</t>
+  </si>
+  <si>
+    <t>鄭汝芬</t>
+  </si>
+  <si>
+    <t>謝新隆</t>
+  </si>
+  <si>
+    <t>S2年04月29日</t>
+  </si>
+  <si>
+    <t>82年04月29日</t>
+  </si>
+  <si>
+    <t>81年07月07日</t>
+  </si>
+  <si>
+    <t>82年07月06日</t>
+  </si>
+  <si>
+    <t>74年10月24日</t>
+  </si>
+  <si>
+    <t>98年10月30日</t>
+  </si>
+  <si>
+    <t>87年02月20日</t>
+  </si>
+  <si>
+    <t>80年12月10日</t>
+  </si>
+  <si>
+    <t>81年12月12日</t>
+  </si>
+  <si>
+    <t>91年08月07日</t>
+  </si>
+  <si>
+    <t>98年05月04日</t>
+  </si>
+  <si>
+    <t>98年05月</t>
+  </si>
+  <si>
+    <t>99年08月12日</t>
+  </si>
+  <si>
+    <t>100年08月03日</t>
+  </si>
+  <si>
+    <t>100年08月03曰</t>
+  </si>
+  <si>
+    <t>101年01月11曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>地籍圖修正測量</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>共有物分</t>
+  </si>
+  <si>
+    <t>1955340(超過五年）</t>
+  </si>
+  <si>
+    <t>2077536(超過五年）</t>
+  </si>
+  <si>
+    <t>57992(超過五年）</t>
+  </si>
+  <si>
+    <t>4243701(超過五年）</t>
+  </si>
+  <si>
+    <t>1592800(超過五年）</t>
+  </si>
+  <si>
+    <t>6070222(超過五年）</t>
+  </si>
+  <si>
+    <t>1859130</t>
+  </si>
+  <si>
+    <t>2295520(超過五年）</t>
+  </si>
+  <si>
+    <t>1886400(超過五年）</t>
+  </si>
+  <si>
+    <t>1800219(超過五年）</t>
+  </si>
+  <si>
+    <t>239420(超過五年）</t>
+  </si>
+  <si>
+    <t>2066362</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-02-01</t>
+  </si>
+  <si>
+    <t>tmpbc031</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,274 +311,58 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>彰化縣溪州鄕進樂段0046-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0046-0001 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉瓦厝段0282-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉瓦厝段0282-0001 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉忠孝段0796-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段六小段 0117-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中央段0568-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中央段0569-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中央段0572-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中央段0573-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段0111-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州郷湄洲段0033-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉肓善段0865-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄕復興段0692-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段0693-0006 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段0693-0010</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段0693-0012 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段0693-0016 地號</t>
-  </si>
-  <si>
-    <t>彰化縣埤頭鄉芙朝段0432-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0224-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0225-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0228-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0242-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0251 -0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0252-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0253-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段0264-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮大饒段0573-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>254分之25</t>
-  </si>
-  <si>
-    <t>10000分之 166</t>
-  </si>
-  <si>
-    <t>64分之17</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>2023分之 163</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>2160分之 585</t>
-  </si>
-  <si>
-    <t>鄭汝芬</t>
-  </si>
-  <si>
-    <t>謝新隆</t>
-  </si>
-  <si>
-    <t>S2年04月 29日</t>
-  </si>
-  <si>
-    <t>82年04月 29日</t>
-  </si>
-  <si>
-    <t>81年07月 07日</t>
-  </si>
-  <si>
-    <t>82年07月 06日</t>
-  </si>
-  <si>
-    <t>74年10月 24日</t>
-  </si>
-  <si>
-    <t>98年10月 30日</t>
-  </si>
-  <si>
-    <t>87年02月 20日</t>
-  </si>
-  <si>
-    <t>80年12月 10日</t>
-  </si>
-  <si>
-    <t>81年12月 12日</t>
-  </si>
-  <si>
-    <t>91年08月 07日</t>
-  </si>
-  <si>
-    <t>98年05月 04日</t>
-  </si>
-  <si>
-    <t>98年05月</t>
-  </si>
-  <si>
-    <t>99年08月 12日</t>
-  </si>
-  <si>
-    <t>100 年 08 月03日</t>
-  </si>
-  <si>
-    <t>100 年 08 月03曰</t>
-  </si>
-  <si>
-    <t>101 年 01 月11曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>地籍圖修 正測量</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>共有物分</t>
-  </si>
-  <si>
-    <t>1’955,340(超 過五年）</t>
-  </si>
-  <si>
-    <t>2,077，536(超 過五年）</t>
-  </si>
-  <si>
-    <t>57，992(超過 五年）</t>
-  </si>
-  <si>
-    <t>4,243，701(超 過五年）</t>
-  </si>
-  <si>
-    <t>1,592，800(超 過五年）</t>
-  </si>
-  <si>
-    <t>6,070,222(超 過五年）</t>
-  </si>
-  <si>
-    <t>1，859，130</t>
-  </si>
-  <si>
-    <t>2，295，520(超 過五年）</t>
-  </si>
-  <si>
-    <t>1’886，400(超 過五年）</t>
-  </si>
-  <si>
-    <t>1’800’219(超 過五年）</t>
-  </si>
-  <si>
-    <t>239,420(超過 五年）</t>
-  </si>
-  <si>
-    <t>2，066,362</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段00113-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州郷進樂段00114-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段六小段 18478-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00023-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00024-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00036-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00037-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00038-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00039-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00040-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00041-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00075-000 建號</t>
+    <t>彰化縣溪州鄉進樂段00113000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州郷進樂段00114000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段六小段18478000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00023000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00024000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00036000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00037000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00038000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00039000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00040000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00041000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00075000建號</t>
   </si>
   <si>
     <t>彰化縣溪州鄉中央路</t>
   </si>
   <si>
-    <t>彰化縣溪州郷復興段00022-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00250-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00249-000 建號</t>
+    <t>彰化縣溪州郷復興段00022000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00250000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00249000建號</t>
   </si>
   <si>
     <t>彰化縣員林鎮中山路</t>
   </si>
   <si>
-    <t>彰化縣溪州鄉進樂段00063-000 建號</t>
+    <t>彰化縣溪州鄉進樂段00063000建號</t>
   </si>
   <si>
     <t>彰化縣溪州鄉中山路</t>
@@ -320,70 +371,61 @@
     <t>彰化縣溪州鄉進興路</t>
   </si>
   <si>
-    <t>100000 分 之 25000</t>
-  </si>
-  <si>
-    <t>92年09月 19日</t>
-  </si>
-  <si>
-    <t>73年12月 31曰</t>
-  </si>
-  <si>
-    <t>87年02月 20曰</t>
-  </si>
-  <si>
-    <t>98年07月 30日</t>
-  </si>
-  <si>
-    <t>98年06月 26日</t>
-  </si>
-  <si>
-    <t>99年02月 25日</t>
+    <t>100000分之25000</t>
+  </si>
+  <si>
+    <t>92年09月19日</t>
+  </si>
+  <si>
+    <t>73年12月31曰</t>
+  </si>
+  <si>
+    <t>87年02月20曰</t>
+  </si>
+  <si>
+    <t>98年07月30日</t>
+  </si>
+  <si>
+    <t>98年06月26日</t>
+  </si>
+  <si>
+    <t>99年02月25日</t>
   </si>
   <si>
     <t>新建</t>
   </si>
   <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>497,900 (超過 五年）</t>
-  </si>
-  <si>
-    <t>534，700(超過 五年）</t>
-  </si>
-  <si>
-    <t>609,900 (超過 五年）</t>
-  </si>
-  <si>
-    <t>86,975 (超過 五年）</t>
-  </si>
-  <si>
-    <t>1,129,600(超 過五年）</t>
-  </si>
-  <si>
-    <t>471,400(超過 五年）</t>
-  </si>
-  <si>
-    <t>589,900 (超過 五年）</t>
-  </si>
-  <si>
-    <t>471’400(超過 五年）</t>
-  </si>
-  <si>
-    <t>589,900(超過 五年）</t>
-  </si>
-  <si>
-    <t>589，900(超過 五年）</t>
-  </si>
-  <si>
-    <t>381,296(超過 五年）</t>
-  </si>
-  <si>
-    <t>36,266(超過 五年）</t>
-  </si>
-  <si>
-    <t>172,064(超過 五年）</t>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>497900(超過五年）</t>
+  </si>
+  <si>
+    <t>534700(超過五年）</t>
+  </si>
+  <si>
+    <t>609900(超過五年）</t>
+  </si>
+  <si>
+    <t>86975(超過五年）</t>
+  </si>
+  <si>
+    <t>1129600(超過五年）</t>
+  </si>
+  <si>
+    <t>471400(超過五年）</t>
+  </si>
+  <si>
+    <t>589900(超過五年）</t>
+  </si>
+  <si>
+    <t>381296(超過五年）</t>
+  </si>
+  <si>
+    <t>36266(超過五年）</t>
+  </si>
+  <si>
+    <t>172064(超過五年）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -413,7 +455,7 @@
     <t>第一商業銀行西螺分行</t>
   </si>
   <si>
-    <t>溪州郵局（第3 7支局）</t>
+    <t>溪州郵局（第37支局）</t>
   </si>
   <si>
     <t>彰化商業銀行北斗分行</t>
@@ -422,19 +464,19 @@
     <t>台中商業銀行員林分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行員林分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行松南分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行敦南分 行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行員林分 行</t>
-  </si>
-  <si>
-    <t>日盛國際商業銀行員林分 行</t>
+    <t>中國信託商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行松南分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>日盛國際商業銀行員林分行</t>
   </si>
   <si>
     <t>臺灣土地銀行員林分行</t>
@@ -467,13 +509,7 @@
     <t>美金</t>
   </si>
   <si>
-    <t>2，978,066</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>2978066</t>
   </si>
   <si>
     <t>quantity</t>
@@ -488,27 +524,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>台灣水泥股份有限公司</t>
   </si>
   <si>
@@ -542,15 +557,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-02-01</t>
-  </si>
-  <si>
-    <t>tmpbc031</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -566,25 +572,25 @@
     <t>山隆通運股份有限公司</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及事</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
+    <t>(九）珠寶古董字畫及事</t>
+  </si>
+  <si>
+    <t>財產種類</t>
   </si>
   <si>
     <t>珠寶</t>
   </si>
   <si>
-    <t>-他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>m :新臺幣2,150, 000元）</t>
+    <t>m:新臺幣2150000元）</t>
   </si>
   <si>
     <t>價</t>
@@ -683,37 +689,37 @@
     <t>借款</t>
   </si>
   <si>
-    <t>隆霖網路科技股份有限公司 彰化縣溪州鄉慶平路30號2 樓</t>
-  </si>
-  <si>
-    <t>隆霖網路科技股份有限公司 彰化縣溪州鄉慶平路30號1 樓</t>
-  </si>
-  <si>
-    <t>隆霖多媒體科技股份有限公 司 彰化縣溪州郷慶平路28號2 樓</t>
-  </si>
-  <si>
-    <t>全家福通訊科技股份有限公 司 彰化縣溪州鄉中山路3段 270巷11號1樓</t>
-  </si>
-  <si>
-    <t>隆立營造股份有限公司 彰化縣溪州鄕進元路10號</t>
-  </si>
-  <si>
-    <t>747,000,000</t>
-  </si>
-  <si>
-    <t>98年07月 27日</t>
-  </si>
-  <si>
-    <t>100年03月 10日</t>
-  </si>
-  <si>
-    <t>100年09月 26日</t>
-  </si>
-  <si>
-    <t>100年12月 19日</t>
-  </si>
-  <si>
-    <t>97年09月 23日</t>
+    <t>隆霖網路科技股份有限公司彰化縣溪州鄉慶平路30號2樓</t>
+  </si>
+  <si>
+    <t>隆霖網路科技股份有限公司彰化縣溪州鄉慶平路30號1樓</t>
+  </si>
+  <si>
+    <t>隆霖多媒體科技股份有限公司彰化縣溪州郷慶平路28號2樓</t>
+  </si>
+  <si>
+    <t>全家福通訊科技股份有限公司彰化縣溪州鄉中山路3段270巷11號1樓</t>
+  </si>
+  <si>
+    <t>隆立營造股份有限公司彰化縣溪州鄕進元路10號</t>
+  </si>
+  <si>
+    <t>747000000</t>
+  </si>
+  <si>
+    <t>98年07月27日</t>
+  </si>
+  <si>
+    <t>100年03月10日</t>
+  </si>
+  <si>
+    <t>100年09月26日</t>
+  </si>
+  <si>
+    <t>100年12月19日</t>
+  </si>
+  <si>
+    <t>97年09月23日</t>
   </si>
   <si>
     <t>借貸</t>
@@ -755,16 +761,16 @@
     <t>亞太電信股份有限公司</t>
   </si>
   <si>
-    <t>全家福通訊科技股份有限公 司</t>
+    <t>全家福通訊科技股份有限公司</t>
   </si>
   <si>
     <t>彰化縣西德里舜耕路47號</t>
   </si>
   <si>
-    <t>臺北市八德路2段232號4 樓</t>
-  </si>
-  <si>
-    <t>臺北市瑞光路358巷36號5 樓</t>
+    <t>臺北市八德路2段232號4樓</t>
+  </si>
+  <si>
+    <t>臺北市瑞光路358巷36號5樓</t>
   </si>
   <si>
     <t>彰縣西德里舜耕路47號</t>
@@ -773,7 +779,7 @@
     <t>彰化縣復興路12號</t>
   </si>
   <si>
-    <t>高雄市崙北巷1-1號</t>
+    <t>高雄市崙北巷11號</t>
   </si>
   <si>
     <t>彰化縣慶平路83號</t>
@@ -782,37 +788,37 @@
     <t>臺北市經貿二路66號12樓</t>
   </si>
   <si>
-    <t>彰化縣中山路3段270巷11 號1樓</t>
-  </si>
-  <si>
-    <t>78年04月 20日</t>
-  </si>
-  <si>
-    <t>94年01月 13日</t>
-  </si>
-  <si>
-    <t>94年02月 02日</t>
-  </si>
-  <si>
-    <t>72年04月 18日</t>
-  </si>
-  <si>
-    <t>86年02月 19日</t>
-  </si>
-  <si>
-    <t>91年10月 23日</t>
-  </si>
-  <si>
-    <t>74年04月 20日</t>
-  </si>
-  <si>
-    <t>94年01月 13曰</t>
-  </si>
-  <si>
-    <t>97年12月 31日</t>
-  </si>
-  <si>
-    <t>98年05月 19日</t>
+    <t>彰化縣中山路3段270巷11號1樓</t>
+  </si>
+  <si>
+    <t>78年04月20日</t>
+  </si>
+  <si>
+    <t>94年01月13日</t>
+  </si>
+  <si>
+    <t>94年02月02日</t>
+  </si>
+  <si>
+    <t>72年04月18日</t>
+  </si>
+  <si>
+    <t>86年02月19日</t>
+  </si>
+  <si>
+    <t>91年10月23日</t>
+  </si>
+  <si>
+    <t>74年04月20日</t>
+  </si>
+  <si>
+    <t>94年01月13曰</t>
+  </si>
+  <si>
+    <t>97年12月31日</t>
+  </si>
+  <si>
+    <t>98年05月19日</t>
   </si>
   <si>
     <t>合資</t>
@@ -1177,13 +1183,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1205,733 +1211,1342 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>95.85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>101.84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>491</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>28744</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>1448</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>1966</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2227.81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H8" s="2">
         <v>46784010</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>135.07</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H9" s="2">
         <v>2836470</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>88.53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>1073.71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H11" s="2">
         <v>22547910</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>389.98</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>3144</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>267.71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>127.95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H16" s="2">
         <v>870128</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>108.39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2">
         <v>737120</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>111.39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2">
         <v>757656</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>208.83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>3014.97</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H20" s="2">
         <v>1206000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>10.07</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H21" s="2">
         <v>154897</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>40.69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H22" s="2">
         <v>625894</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>18.69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H23" s="2">
         <v>287490</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O23" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>64.41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H24" s="2">
         <v>990755</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>5.78</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H25" s="2">
         <v>88908</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O25" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <v>39.58</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H26" s="2">
         <v>608820</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O26" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>36.67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H27" s="2">
         <v>564058</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O27" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>29.68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H28" s="2">
         <v>456538</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>488.55</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H29" s="2">
         <v>6840167</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O29" s="2">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1949,25 +2564,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1975,25 +2590,25 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2">
         <v>215.58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2001,25 +2616,25 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2">
         <v>229.74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2027,25 +2642,25 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2">
         <v>146.2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2053,25 +2668,25 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2">
         <v>41.62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2079,25 +2694,25 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
         <v>145.87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2105,25 +2720,25 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2">
         <v>60.89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2131,25 +2746,25 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2">
         <v>76.2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2157,25 +2772,25 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2">
         <v>60.89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2183,25 +2798,25 @@
         <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2">
         <v>76.2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2209,25 +2824,25 @@
         <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2">
         <v>60.89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2235,25 +2850,25 @@
         <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2">
         <v>76.2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2261,25 +2876,25 @@
         <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2">
         <v>474.2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2287,25 +2902,25 @@
         <v>61</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2">
         <v>307.8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2313,25 +2928,25 @@
         <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2">
         <v>478.1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2339,22 +2954,22 @@
         <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2">
         <v>399.9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="H16" s="2">
         <v>192133</v>
@@ -2365,22 +2980,22 @@
         <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C17" s="2">
         <v>256.14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="H17" s="2">
         <v>140565</v>
@@ -2391,22 +3006,22 @@
         <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C18" s="2">
         <v>181.3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2">
         <v>99900</v>
@@ -2417,22 +3032,22 @@
         <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2">
         <v>154</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2">
         <v>187600</v>
@@ -2443,22 +3058,22 @@
         <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C20" s="2">
         <v>105.6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H20" s="2">
         <v>131200</v>
@@ -2469,22 +3084,22 @@
         <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2">
         <v>110.8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H21" s="2">
         <v>132000</v>
@@ -2495,22 +3110,22 @@
         <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C22" s="2">
         <v>89.7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H22" s="2">
         <v>106800</v>
@@ -2531,22 +3146,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2554,16 +3169,16 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -2575,16 +3190,16 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -2596,20 +3211,20 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2617,16 +3232,16 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -2638,16 +3253,16 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -2659,16 +3274,16 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -2680,16 +3295,16 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -2701,16 +3316,16 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -2722,16 +3337,16 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -2743,16 +3358,16 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -2764,16 +3379,16 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -2785,16 +3400,16 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2806,16 +3421,16 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2827,16 +3442,16 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2">
         <v>16.8</v>
@@ -2850,16 +3465,16 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F16" s="2">
         <v>577.04</v>
@@ -2873,16 +3488,16 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -2894,16 +3509,16 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -2915,16 +3530,16 @@
         <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -2936,16 +3551,16 @@
         <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -2957,16 +3572,16 @@
         <v>114</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -2978,16 +3593,16 @@
         <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -2999,16 +3614,16 @@
         <v>116</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -3020,16 +3635,16 @@
         <v>117</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -3041,16 +3656,16 @@
         <v>118</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -3062,16 +3677,16 @@
         <v>119</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -3083,16 +3698,16 @@
         <v>120</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
@@ -3104,16 +3719,16 @@
         <v>121</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2">
@@ -3125,16 +3740,16 @@
         <v>122</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F29" s="2">
         <v>1401.94</v>
@@ -3158,43 +3773,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>155</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>157</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3202,10 +3817,10 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
         <v>78364</v>
@@ -3214,28 +3829,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G2" s="2">
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L2" s="2">
         <v>1713</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="N2" s="2">
         <v>127</v>
@@ -3246,10 +3861,10 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2">
         <v>620</v>
@@ -3258,28 +3873,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G3" s="2">
         <v>6200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2">
         <v>1713</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2">
         <v>128</v>
@@ -3290,10 +3905,10 @@
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2">
         <v>803</v>
@@ -3302,28 +3917,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G4" s="2">
         <v>8030</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2">
         <v>1713</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2">
         <v>129</v>
@@ -3334,10 +3949,10 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -3346,28 +3961,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L5" s="2">
         <v>1713</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="N5" s="2">
         <v>130</v>
@@ -3378,10 +3993,10 @@
         <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2">
         <v>2839</v>
@@ -3390,28 +4005,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G6" s="2">
         <v>28390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L6" s="2">
         <v>1713</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2">
         <v>131</v>
@@ -3422,10 +4037,10 @@
         <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2">
         <v>3874</v>
@@ -3434,28 +4049,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G7" s="2">
         <v>38740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L7" s="2">
         <v>1713</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2">
         <v>132</v>
@@ -3466,10 +4081,10 @@
         <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2">
         <v>56130</v>
@@ -3478,28 +4093,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G8" s="2">
         <v>561300</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L8" s="2">
         <v>1713</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="N8" s="2">
         <v>133</v>
@@ -3510,10 +4125,10 @@
         <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2">
         <v>217264</v>
@@ -3522,28 +4137,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G9" s="2">
         <v>2172640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L9" s="2">
         <v>1713</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="N9" s="2">
         <v>134</v>
@@ -3554,10 +4169,10 @@
         <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2">
         <v>3359</v>
@@ -3566,28 +4181,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G10" s="2">
         <v>33590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L10" s="2">
         <v>1713</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="N10" s="2">
         <v>135</v>
@@ -3598,10 +4213,10 @@
         <v>136</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2">
         <v>25992</v>
@@ -3610,28 +4225,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G11" s="2">
         <v>259920</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L11" s="2">
         <v>1713</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="N11" s="2">
         <v>136</v>
@@ -3652,22 +4267,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3675,10 +4290,10 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -3687,7 +4302,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G2" s="2">
         <v>10</v>
@@ -3698,14 +4313,14 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -3715,22 +4330,22 @@
         <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3738,14 +4353,14 @@
         <v>154</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2">
         <v>2150000</v>
@@ -3767,13 +4382,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3781,13 +4396,13 @@
         <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3795,13 +4410,13 @@
         <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3809,13 +4424,13 @@
         <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3823,13 +4438,13 @@
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3837,13 +4452,13 @@
         <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3851,13 +4466,13 @@
         <v>165</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3865,13 +4480,13 @@
         <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3879,13 +4494,13 @@
         <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3893,13 +4508,13 @@
         <v>168</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3907,13 +4522,13 @@
         <v>169</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3921,13 +4536,13 @@
         <v>170</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3935,13 +4550,13 @@
         <v>171</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3949,13 +4564,13 @@
         <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3963,13 +4578,13 @@
         <v>173</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3977,13 +4592,13 @@
         <v>174</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3991,13 +4606,13 @@
         <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4005,13 +4620,13 @@
         <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4019,13 +4634,13 @@
         <v>177</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4033,13 +4648,13 @@
         <v>178</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4047,13 +4662,13 @@
         <v>179</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4061,13 +4676,13 @@
         <v>180</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4075,13 +4690,13 @@
         <v>181</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4099,22 +4714,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4122,22 +4737,22 @@
         <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E2" s="2">
         <v>75000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4145,22 +4760,22 @@
         <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E3" s="2">
         <v>209000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4168,22 +4783,22 @@
         <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E4" s="2">
         <v>13000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4191,22 +4806,22 @@
         <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4214,22 +4829,22 @@
         <v>191</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E6" s="2">
         <v>195000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4247,22 +4862,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4270,22 +4885,22 @@
         <v>200</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4293,22 +4908,22 @@
         <v>201</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4316,22 +4931,22 @@
         <v>202</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4339,22 +4954,22 @@
         <v>203</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4362,22 +4977,22 @@
         <v>204</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4385,22 +5000,22 @@
         <v>205</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4408,22 +5023,22 @@
         <v>206</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4431,22 +5046,22 @@
         <v>207</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4454,22 +5069,22 @@
         <v>208</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4477,22 +5092,22 @@
         <v>209</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4500,22 +5115,22 @@
         <v>210</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="237">
   <si>
     <t>name</t>
   </si>
@@ -65,7 +65,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>彰化縣溪州鄕進樂段00460000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>彰化縣溪州鄉進樂段00460001地號</t>
@@ -179,9 +182,6 @@
     <t>謝新隆</t>
   </si>
   <si>
-    <t>S2年04月29日</t>
-  </si>
-  <si>
     <t>82年04月29日</t>
   </si>
   <si>
@@ -242,9 +242,6 @@
     <t>共有物分</t>
   </si>
   <si>
-    <t>1955340(超過五年）</t>
-  </si>
-  <si>
     <t>2077536(超過五年）</t>
   </si>
   <si>
@@ -290,30 +287,15 @@
     <t>tmpbc031</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>彰化縣溪州鄉進樂段00113000建號</t>
   </si>
   <si>
+    <t>92年09月19日</t>
+  </si>
+  <si>
+    <t>497900(超過五年）</t>
+  </si>
+  <si>
     <t>彰化縣溪州郷進樂段00114000建號</t>
   </si>
   <si>
@@ -374,9 +356,6 @@
     <t>100000分之25000</t>
   </si>
   <si>
-    <t>92年09月19日</t>
-  </si>
-  <si>
     <t>73年12月31曰</t>
   </si>
   <si>
@@ -398,9 +377,6 @@
     <t>第一次登記</t>
   </si>
   <si>
-    <t>497900(超過五年）</t>
-  </si>
-  <si>
     <t>534700(超過五年）</t>
   </si>
   <si>
@@ -428,189 +404,150 @@
     <t>172064(超過五年）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
+    <t>安泰商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>聯邦商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行西螺分行</t>
+  </si>
+  <si>
+    <t>溪州郵局（第37支局）</t>
+  </si>
+  <si>
+    <t>彰化商業銀行北斗分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行松南分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>日盛國際商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行員林分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行花壇分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行北斗分行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>其他存款</t>
+  </si>
+  <si>
+    <t>&gt;舌期存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>2978066</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>台塑石化股份有限公司</t>
+  </si>
+  <si>
+    <t>南亞塑膠工業股份有限公司</t>
+  </si>
+  <si>
+    <t>永豐餘造紙股份有限公司</t>
+  </si>
+  <si>
+    <t>台新金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>中國信託金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>台灣苯乙烯工業股份有限公司</t>
+  </si>
+  <si>
+    <t>第一金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>聯華實業股份有限公司</t>
+  </si>
+  <si>
+    <t>新光合成纖维股份有限公司</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>山隆通運股份有限公司</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及事</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>珠寶</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>m:新臺幣2150000元）</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>安泰商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>聯邦商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行西螺分行</t>
-  </si>
-  <si>
-    <t>溪州郵局（第37支局）</t>
-  </si>
-  <si>
-    <t>彰化商業銀行北斗分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行松南分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行敦南分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>日盛國際商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行員林分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行花壇分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行北斗分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>其他存款</t>
-  </si>
-  <si>
-    <t>&gt;舌期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>2978066</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>台灣水泥股份有限公司</t>
-  </si>
-  <si>
-    <t>台塑石化股份有限公司</t>
-  </si>
-  <si>
-    <t>南亞塑膠工業股份有限公司</t>
-  </si>
-  <si>
-    <t>永豐餘造紙股份有限公司</t>
-  </si>
-  <si>
-    <t>台新金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>中國信託金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>台灣苯乙烯工業股份有限公司</t>
-  </si>
-  <si>
-    <t>第一金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>聯華實業股份有限公司</t>
-  </si>
-  <si>
-    <t>新光合成纖维股份有限公司</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>山隆通運股份有限公司</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及事</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>珠寶</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>m:新臺幣2150000元）</t>
+    <t>額</t>
   </si>
   <si>
     <t>價</t>
   </si>
   <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>真意終身還本保險</t>
+  </si>
+  <si>
     <t>中華郵政</t>
   </si>
   <si>
@@ -626,9 +563,6 @@
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>真意終身還本保險</t>
-  </si>
-  <si>
     <t>百年長青睛身壽險</t>
   </si>
   <si>
@@ -671,27 +605,18 @@
     <t>終身還本二年型</t>
   </si>
   <si>
-    <t>債權人</t>
-  </si>
-  <si>
-    <t>債務人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>借款</t>
   </si>
   <si>
     <t>隆霖網路科技股份有限公司彰化縣溪州鄉慶平路30號2樓</t>
   </si>
   <si>
+    <t>98年07月27日</t>
+  </si>
+  <si>
+    <t>借貸</t>
+  </si>
+  <si>
     <t>隆霖網路科技股份有限公司彰化縣溪州鄉慶平路30號1樓</t>
   </si>
   <si>
@@ -707,9 +632,6 @@
     <t>747000000</t>
   </si>
   <si>
-    <t>98年07月27日</t>
-  </si>
-  <si>
     <t>100年03月10日</t>
   </si>
   <si>
@@ -722,27 +644,21 @@
     <t>97年09月23日</t>
   </si>
   <si>
-    <t>借貸</t>
-  </si>
-  <si>
     <t>股東往來</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>任豐企業股份有限公司</t>
   </si>
   <si>
+    <t>彰化縣西德里舜耕路47號</t>
+  </si>
+  <si>
+    <t>78年04月20日</t>
+  </si>
+  <si>
+    <t>合資</t>
+  </si>
+  <si>
     <t>聯華電信股份有限公司</t>
   </si>
   <si>
@@ -764,9 +680,6 @@
     <t>全家福通訊科技股份有限公司</t>
   </si>
   <si>
-    <t>彰化縣西德里舜耕路47號</t>
-  </si>
-  <si>
     <t>臺北市八德路2段232號4樓</t>
   </si>
   <si>
@@ -791,9 +704,6 @@
     <t>彰化縣中山路3段270巷11號1樓</t>
   </si>
   <si>
-    <t>78年04月20日</t>
-  </si>
-  <si>
     <t>94年01月13日</t>
   </si>
   <si>
@@ -819,9 +729,6 @@
   </si>
   <si>
     <t>98年05月19日</t>
-  </si>
-  <si>
-    <t>合資</t>
   </si>
   <si>
     <t>合夥</t>
@@ -1183,13 +1090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,25 +1139,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>95.85</v>
+        <v>101.84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>68</v>
@@ -1259,45 +1172,51 @@
         <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" s="2">
         <v>1713</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>101.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>101.84</v>
+        <v>491</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>68</v>
@@ -1306,42 +1225,48 @@
         <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3" s="2">
         <v>1713</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0984251968503937</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>48.3267716535433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>491</v>
+        <v>28744</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>54</v>
@@ -1353,45 +1278,51 @@
         <v>75</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M4" s="2">
         <v>1713</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0984251968503937</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2829.13385826772</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>28744</v>
+        <v>1448</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>68</v>
@@ -1400,45 +1331,51 @@
         <v>76</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" s="2">
         <v>1713</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1448</v>
+        <v>1966</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>68</v>
@@ -1447,89 +1384,101 @@
         <v>77</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" s="2">
         <v>1713</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0166</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>32.6356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>1966</v>
+        <v>2227.81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="H7" s="2">
+        <v>46784010</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M7" s="2">
         <v>1713</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>2227.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>2227.81</v>
+        <v>135.07</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>57</v>
@@ -1538,45 +1487,51 @@
         <v>69</v>
       </c>
       <c r="H8" s="2">
-        <v>46784010</v>
+        <v>2836470</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="2">
         <v>1713</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>135.07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>135.07</v>
+        <v>88.53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>57</v>
@@ -1584,46 +1539,52 @@
       <c r="G9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="2">
-        <v>2836470</v>
+      <c r="H9" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="2">
         <v>1713</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>88.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>88.53</v>
+        <v>1073.71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>57</v>
@@ -1631,96 +1592,108 @@
       <c r="G10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>79</v>
+      <c r="H10" s="2">
+        <v>22547910</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="2">
         <v>1713</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1073.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1073.71</v>
+        <v>389.98</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="2">
-        <v>22547910</v>
+        <v>68</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M11" s="2">
         <v>1713</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.265625</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>103.5884375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>389.98</v>
+        <v>3144</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>68</v>
@@ -1729,45 +1702,51 @@
         <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M12" s="2">
         <v>1713</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>3144</v>
+        <v>267.71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>68</v>
@@ -1776,230 +1755,260 @@
         <v>81</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M13" s="2">
         <v>1713</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>267.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>267.71</v>
+        <v>103</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>82</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M14" s="2">
         <v>1713</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.0805734058329214</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>8.2990608007909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>103</v>
+        <v>127.95</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="H15" s="2">
+        <v>870128</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" s="2">
         <v>1713</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>42.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>127.95</v>
+        <v>108.39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H16" s="2">
-        <v>870128</v>
+        <v>737120</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M16" s="2">
         <v>1713</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>36.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>108.39</v>
+        <v>111.39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2">
-        <v>737120</v>
+        <v>757656</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L17" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M17" s="2">
         <v>1713</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O17" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>37.13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>111.39</v>
+        <v>208.83</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>62</v>
@@ -2007,187 +2016,211 @@
       <c r="G18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="2">
-        <v>757656</v>
+      <c r="H18" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M18" s="2">
         <v>1713</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>69.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="2">
-        <v>208.83</v>
+        <v>3014.97</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1206000</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M19" s="2">
         <v>1713</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1004.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="2">
-        <v>3014.97</v>
+        <v>10.07</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H20" s="2">
-        <v>1206000</v>
+        <v>154897</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M20" s="2">
         <v>1713</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="2">
-        <v>10.07</v>
+        <v>40.69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H21" s="2">
-        <v>154897</v>
+        <v>625894</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M21" s="2">
         <v>1713</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>40.69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" s="2">
-        <v>40.69</v>
+        <v>18.69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>66</v>
@@ -2196,139 +2229,157 @@
         <v>70</v>
       </c>
       <c r="H22" s="2">
-        <v>625894</v>
+        <v>287490</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M22" s="2">
         <v>1713</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O22" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>18.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C23" s="2">
-        <v>18.69</v>
+        <v>64.41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H23" s="2">
-        <v>287490</v>
+        <v>990755</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M23" s="2">
         <v>1713</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O23" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>64.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C24" s="2">
-        <v>64.41</v>
+        <v>5.78</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H24" s="2">
-        <v>990755</v>
+        <v>88908</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M24" s="2">
         <v>1713</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O24" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>39</v>
+      </c>
+      <c r="P24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C25" s="2">
-        <v>5.78</v>
+        <v>39.58</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>66</v>
@@ -2337,45 +2388,51 @@
         <v>70</v>
       </c>
       <c r="H25" s="2">
-        <v>88908</v>
+        <v>608820</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L25" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M25" s="2">
         <v>1713</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O25" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>40</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>39.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C26" s="2">
-        <v>39.58</v>
+        <v>36.67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>66</v>
@@ -2384,45 +2441,51 @@
         <v>70</v>
       </c>
       <c r="H26" s="2">
-        <v>608820</v>
+        <v>564058</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M26" s="2">
         <v>1713</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O26" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C27" s="2">
-        <v>36.67</v>
+        <v>29.68</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>66</v>
@@ -2431,122 +2494,87 @@
         <v>70</v>
       </c>
       <c r="H27" s="2">
-        <v>564058</v>
+        <v>456538</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="2">
         <v>1713</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>42</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>29.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C28" s="2">
-        <v>29.68</v>
+        <v>488.55</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H28" s="2">
-        <v>456538</v>
+        <v>6840167</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="L28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M28" s="2">
         <v>1713</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1">
         <v>43</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="2">
-        <v>488.55</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="2">
-        <v>6840167</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" s="2">
-        <v>1713</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O29" s="2">
-        <v>43</v>
+      <c r="P28" s="2">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>132.315625</v>
       </c>
     </row>
   </sheetData>
@@ -2556,7 +2584,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2564,328 +2592,328 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1">
+        <v>215.58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2">
-        <v>215.58</v>
+        <v>229.74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2">
-        <v>229.74</v>
+        <v>146.2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2">
-        <v>146.2</v>
+        <v>41.62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2">
-        <v>41.62</v>
+        <v>145.87</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2">
-        <v>145.87</v>
+        <v>60.89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2">
-        <v>60.89</v>
+        <v>76.2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2">
-        <v>76.2</v>
+        <v>60.89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2">
-        <v>60.89</v>
+        <v>76.2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2">
-        <v>76.2</v>
+        <v>60.89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2">
+        <v>76.2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="2">
-        <v>60.89</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="G11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2">
-        <v>76.2</v>
+        <v>474.2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2">
-        <v>474.2</v>
+        <v>307.8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>61</v>
@@ -2894,24 +2922,24 @@
         <v>70</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2">
-        <v>307.8</v>
+        <v>478.1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>61</v>
@@ -2920,128 +2948,128 @@
         <v>70</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2">
-        <v>478.1</v>
+        <v>399.9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
+      </c>
+      <c r="H15" s="2">
+        <v>192133</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2">
-        <v>399.9</v>
+        <v>256.14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H16" s="2">
-        <v>192133</v>
+        <v>140565</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2">
-        <v>256.14</v>
+        <v>181.3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2">
-        <v>140565</v>
+        <v>99900</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2">
-        <v>181.3</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H18" s="2">
-        <v>99900</v>
+        <v>187600</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2">
-        <v>154</v>
+        <v>105.6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>66</v>
@@ -3050,24 +3078,24 @@
         <v>70</v>
       </c>
       <c r="H19" s="2">
-        <v>187600</v>
+        <v>131200</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C20" s="2">
-        <v>105.6</v>
+        <v>110.8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>66</v>
@@ -3076,24 +3104,24 @@
         <v>70</v>
       </c>
       <c r="H20" s="2">
-        <v>131200</v>
+        <v>132000</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2">
-        <v>110.8</v>
+        <v>89.7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>66</v>
@@ -3102,32 +3130,6 @@
         <v>70</v>
       </c>
       <c r="H21" s="2">
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>69</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="2">
-        <v>89.7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="2">
         <v>106800</v>
       </c>
     </row>
@@ -3138,7 +3140,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3146,615 +3148,592 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>454643</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>454643</v>
+        <v>253435</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>253435</v>
+      <c r="G3" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>162</v>
+      <c r="G4" s="2">
+        <v>4352112</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>4352112</v>
+        <v>1029275</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>1029275</v>
+        <v>20073205</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>20073205</v>
+        <v>208389</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>208389</v>
+        <v>651074</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>651074</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>257</v>
+        <v>7235247</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>7235247</v>
+        <v>34540360</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>34540360</v>
+        <v>1364309</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>1364309</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16.8</v>
+      </c>
       <c r="G14" s="2">
-        <v>94</v>
+        <v>497.45</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2">
-        <v>16.8</v>
+        <v>577.04</v>
       </c>
       <c r="G15" s="2">
-        <v>497.45</v>
+        <v>17086.15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2">
-        <v>577.04</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2">
-        <v>17086.15</v>
+        <v>195880</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>195880</v>
+        <v>308259</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>308259</v>
+        <v>50845184</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>50845184</v>
+        <v>559236</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>559236</v>
+        <v>653606</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>653606</v>
+        <v>16407</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>16407</v>
+        <v>373735</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>373735</v>
+        <v>14251</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>14251</v>
+        <v>16428</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>16428</v>
+        <v>1288757</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
-        <v>1288757</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
-        <v>233</v>
+        <v>23240</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1401.94</v>
+      </c>
       <c r="G28" s="2">
-        <v>23240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <v>122</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1401.94</v>
-      </c>
-      <c r="G29" s="2">
         <v>41511.44</v>
       </c>
     </row>
@@ -3765,7 +3744,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3779,16 +3758,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -3814,441 +3793,397 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2">
-        <v>78364</v>
+        <v>620</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="G2" s="2">
-        <v>783640</v>
+        <v>6200</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2">
         <v>1713</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N2" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2">
-        <v>620</v>
+        <v>803</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="G3" s="2">
-        <v>6200</v>
+        <v>8030</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" s="2">
         <v>1713</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N3" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2">
-        <v>803</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2">
-        <v>8030</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
         <v>1713</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>2839</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="G5" s="2">
-        <v>10</v>
+        <v>28390</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5" s="2">
         <v>1713</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N5" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2">
-        <v>2839</v>
+        <v>3874</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="G6" s="2">
-        <v>28390</v>
+        <v>38740</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="K6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L6" s="2">
         <v>1713</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2">
-        <v>3874</v>
+        <v>56130</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="G7" s="2">
-        <v>38740</v>
+        <v>561300</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L7" s="2">
         <v>1713</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N7" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2">
-        <v>56130</v>
+        <v>217264</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="G8" s="2">
-        <v>561300</v>
+        <v>2172640</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="2">
         <v>1713</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2">
-        <v>217264</v>
+        <v>3359</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="G9" s="2">
-        <v>2172640</v>
+        <v>33590</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="K9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="2">
         <v>1713</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N9" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2">
-        <v>3359</v>
+        <v>25992</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="G10" s="2">
-        <v>33590</v>
+        <v>259920</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L10" s="2">
         <v>1713</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N10" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>136</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="2">
-        <v>25992</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="2">
-        <v>259920</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1713</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N11" s="2">
         <v>136</v>
       </c>
     </row>
@@ -4258,6 +4193,416 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>152</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>153</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>154</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>2150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>160</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>162</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>163</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>164</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>165</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>166</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>167</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>168</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>169</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>170</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>171</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>172</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>173</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>174</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>175</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>176</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>177</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>178</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>179</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>180</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>181</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -4267,446 +4612,124 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
+      </c>
+      <c r="E1" s="1">
+        <v>75000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="E2" s="2">
-        <v>10</v>
+        <v>209000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10</v>
+        <v>203</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2150000</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="2">
+        <v>195000000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>159</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>160</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>162</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>163</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>164</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>165</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>166</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>167</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>168</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>169</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>170</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>171</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>172</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>173</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>174</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>175</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>176</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>177</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>178</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>179</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>180</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>181</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4714,423 +4737,252 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1600000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E2" s="2">
-        <v>75000000</v>
+        <v>30460</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>213</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E3" s="2">
-        <v>209000000</v>
+        <v>1222200</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="E4" s="2">
-        <v>13000000</v>
+        <v>800000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
+      </c>
+      <c r="E5" s="2">
+        <v>300000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E6" s="2">
-        <v>195000000</v>
+        <v>1000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>200</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1600000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>201</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="2">
-        <v>30460</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>202</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1222200</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>203</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="2">
-        <v>800000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>204</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="2">
-        <v>300000</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="E7" s="2">
-        <v>1000000</v>
+        <v>120000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="E8" s="2">
-        <v>120000</v>
+        <v>134580</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E9" s="2">
-        <v>134580</v>
+        <v>1000000</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="E10" s="2">
-        <v>1000000</v>
+        <v>726600</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="E11" s="2">
-        <v>726600</v>
+        <v>200000</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>210</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E12" s="2">
-        <v>200000</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="241">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>彰化縣溪州鄕進樂段00460000地號</t>
+  </si>
+  <si>
     <t>彰化縣溪州鄉進樂段00460001地號</t>
   </si>
   <si>
@@ -182,6 +185,9 @@
     <t>謝新隆</t>
   </si>
   <si>
+    <t>S2年04月29日</t>
+  </si>
+  <si>
     <t>82年04月29日</t>
   </si>
   <si>
@@ -242,6 +248,9 @@
     <t>共有物分</t>
   </si>
   <si>
+    <t>1955340(超過五年）</t>
+  </si>
+  <si>
     <t>2077536(超過五年）</t>
   </si>
   <si>
@@ -290,93 +299,93 @@
     <t>彰化縣溪州鄉進樂段00113000建號</t>
   </si>
   <si>
+    <t>彰化縣溪州郷進樂段00114000建號</t>
+  </si>
+  <si>
+    <t>臺北市中山區榮星段六小段18478000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00023000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00024000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00036000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00037000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00038000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00039000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00040000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮和平段00041000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00075000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉中央路</t>
+  </si>
+  <si>
+    <t>彰化縣溪州郷復興段00022000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00250000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉復興段00249000建號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮中山路</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進樂段00063000建號</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉中山路</t>
+  </si>
+  <si>
+    <t>彰化縣溪州鄉進興路</t>
+  </si>
+  <si>
+    <t>100000分之25000</t>
+  </si>
+  <si>
     <t>92年09月19日</t>
   </si>
   <si>
+    <t>73年12月31曰</t>
+  </si>
+  <si>
+    <t>87年02月20曰</t>
+  </si>
+  <si>
+    <t>98年07月30日</t>
+  </si>
+  <si>
+    <t>98年06月26日</t>
+  </si>
+  <si>
+    <t>99年02月25日</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
     <t>497900(超過五年）</t>
   </si>
   <si>
-    <t>彰化縣溪州郷進樂段00114000建號</t>
-  </si>
-  <si>
-    <t>臺北市中山區榮星段六小段18478000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00023000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00024000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00036000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00037000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00038000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00039000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00040000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮和平段00041000建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00075000建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉中央路</t>
-  </si>
-  <si>
-    <t>彰化縣溪州郷復興段00022000建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00250000建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉復興段00249000建號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮中山路</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進樂段00063000建號</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉中山路</t>
-  </si>
-  <si>
-    <t>彰化縣溪州鄉進興路</t>
-  </si>
-  <si>
-    <t>100000分之25000</t>
-  </si>
-  <si>
-    <t>73年12月31曰</t>
-  </si>
-  <si>
-    <t>87年02月20曰</t>
-  </si>
-  <si>
-    <t>98年07月30日</t>
-  </si>
-  <si>
-    <t>98年06月26日</t>
-  </si>
-  <si>
-    <t>99年02月25日</t>
-  </si>
-  <si>
-    <t>新建</t>
-  </si>
-  <si>
-    <t>第一次登記</t>
-  </si>
-  <si>
     <t>534700(超過五年）</t>
   </si>
   <si>
@@ -477,6 +486,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>台灣水泥股份有限公司</t>
   </si>
   <si>
     <t>台塑石化股份有限公司</t>
@@ -1090,7 +1102,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1148,1432 +1160,1485 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>101.84</v>
+        <v>95.85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2">
         <v>1713</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>101.84</v>
+        <v>95.85</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>491</v>
+        <v>101.84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" s="2">
         <v>1713</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.0984251968503937</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>48.3267716535433</v>
+        <v>101.84</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>28744</v>
+        <v>491</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" s="2">
         <v>1713</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.0984251968503937</v>
       </c>
       <c r="Q4" s="2">
-        <v>2829.13385826772</v>
+        <v>48.3267716535433</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1448</v>
+        <v>28744</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2">
         <v>1713</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0.0984251968503937</v>
       </c>
       <c r="Q5" s="2">
-        <v>1448</v>
+        <v>2829.13385826772</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1966</v>
+        <v>1448</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2">
         <v>1713</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
-        <v>0.0166</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>32.6356</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2227.81</v>
+        <v>1966</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="2">
-        <v>46784010</v>
+        <v>70</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M7" s="2">
         <v>1713</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0.0166</v>
       </c>
       <c r="Q7" s="2">
-        <v>2227.81</v>
+        <v>32.6356</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>135.07</v>
+        <v>2227.81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2">
-        <v>2836470</v>
+        <v>46784010</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="2">
         <v>1713</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>135.07</v>
+        <v>2227.81</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>88.53</v>
+        <v>135.07</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2836470</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="2">
         <v>1713</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>88.53</v>
+        <v>135.07</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>1073.71</v>
+        <v>88.53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="2">
-        <v>22547910</v>
+        <v>71</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" s="2">
         <v>1713</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>1073.71</v>
+        <v>88.53</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>389.98</v>
+        <v>1073.71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="H11" s="2">
+        <v>22547910</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M11" s="2">
         <v>1713</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.265625</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>103.5884375</v>
+        <v>1073.71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>3144</v>
+        <v>389.98</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12" s="2">
         <v>1713</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
-        <v>0.5</v>
+        <v>0.265625</v>
       </c>
       <c r="Q12" s="2">
-        <v>1572</v>
+        <v>103.5884375</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>267.71</v>
+        <v>3144</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M13" s="2">
         <v>1713</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q13" s="2">
-        <v>267.71</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>103</v>
+        <v>267.71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M14" s="2">
         <v>1713</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
-        <v>0.0805734058329214</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>8.2990608007909</v>
+        <v>267.71</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>127.95</v>
+        <v>103</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="2">
-        <v>870128</v>
+        <v>72</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M15" s="2">
         <v>1713</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
-        <v>0.333333333333333</v>
+        <v>0.0805734058329214</v>
       </c>
       <c r="Q15" s="2">
-        <v>42.65</v>
+        <v>8.2990608007909</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>108.39</v>
+        <v>127.95</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" s="2">
-        <v>737120</v>
+        <v>870128</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M16" s="2">
         <v>1713</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q16" s="2">
-        <v>36.13</v>
+        <v>42.65</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>111.39</v>
+        <v>108.39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H17" s="2">
-        <v>757656</v>
+        <v>737120</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M17" s="2">
         <v>1713</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="P17" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q17" s="2">
-        <v>37.13</v>
+        <v>36.13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>208.83</v>
+        <v>111.39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
+      </c>
+      <c r="H18" s="2">
+        <v>757656</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M18" s="2">
         <v>1713</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q18" s="2">
-        <v>69.61</v>
+        <v>37.13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>3014.97</v>
+        <v>208.83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1206000</v>
+        <v>73</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M19" s="2">
         <v>1713</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O19" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q19" s="2">
-        <v>1004.99</v>
+        <v>69.61</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>10.07</v>
+        <v>3014.97</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H20" s="2">
-        <v>154897</v>
+        <v>1206000</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M20" s="2">
         <v>1713</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O20" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q20" s="2">
-        <v>10.07</v>
+        <v>1004.99</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>40.69</v>
+        <v>10.07</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2">
-        <v>625894</v>
+        <v>154897</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21" s="2">
         <v>1713</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O21" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" s="2">
         <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <v>40.69</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>18.69</v>
+        <v>40.69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H22" s="2">
-        <v>287490</v>
+        <v>625894</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M22" s="2">
         <v>1713</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O22" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P22" s="2">
         <v>1</v>
       </c>
       <c r="Q22" s="2">
-        <v>18.69</v>
+        <v>40.69</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>64.41</v>
+        <v>18.69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H23" s="2">
-        <v>990755</v>
+        <v>287490</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M23" s="2">
         <v>1713</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O23" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P23" s="2">
         <v>1</v>
       </c>
       <c r="Q23" s="2">
-        <v>64.41</v>
+        <v>18.69</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>5.78</v>
+        <v>64.41</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H24" s="2">
-        <v>88908</v>
+        <v>990755</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M24" s="2">
         <v>1713</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O24" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="2">
         <v>1</v>
       </c>
       <c r="Q24" s="2">
-        <v>5.78</v>
+        <v>64.41</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>39.58</v>
+        <v>5.78</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H25" s="2">
-        <v>608820</v>
+        <v>88908</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M25" s="2">
         <v>1713</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O25" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" s="2">
         <v>1</v>
       </c>
       <c r="Q25" s="2">
-        <v>39.58</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>36.67</v>
+        <v>39.58</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H26" s="2">
-        <v>564058</v>
+        <v>608820</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M26" s="2">
         <v>1713</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O26" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P26" s="2">
         <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <v>36.67</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>29.68</v>
+        <v>36.67</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H27" s="2">
-        <v>456538</v>
+        <v>564058</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M27" s="2">
         <v>1713</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O27" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" s="2">
         <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <v>29.68</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>488.55</v>
+        <v>29.68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H28" s="2">
-        <v>6840167</v>
+        <v>456538</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M28" s="2">
         <v>1713</v>
       </c>
       <c r="N28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" s="2">
+        <v>42</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>29.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="2">
+        <v>488.55</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="2">
+        <v>6840167</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O28" s="2">
+      <c r="J29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" s="2">
         <v>43</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P29" s="2">
         <v>0.270833333333333</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q29" s="2">
         <v>132.315625</v>
       </c>
     </row>
@@ -2584,553 +2649,1173 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="1">
-        <v>215.58</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C2" s="2">
-        <v>229.74</v>
+        <v>215.58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="L2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="2">
+        <v>48</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>215.58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C3" s="2">
-        <v>146.2</v>
+        <v>229.74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>121</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" s="2">
+        <v>49</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>229.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C4" s="2">
-        <v>41.62</v>
+        <v>146.2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="2">
+        <v>50</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>146.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="2">
-        <v>145.87</v>
+        <v>41.62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" s="2">
+        <v>51</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>10.405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C6" s="2">
-        <v>60.89</v>
+        <v>145.87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="2">
+        <v>52</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>145.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="2">
-        <v>76.2</v>
+        <v>60.89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" s="2">
+        <v>53</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>60.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="2">
-        <v>60.89</v>
+        <v>76.2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="2">
+        <v>54</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C9" s="2">
-        <v>76.2</v>
+        <v>60.89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" s="2">
+        <v>55</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>60.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="2">
-        <v>60.89</v>
+        <v>76.2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="2">
+        <v>57</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C11" s="2">
-        <v>76.2</v>
+        <v>60.89</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="2">
         <v>58</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>60.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C12" s="2">
-        <v>474.2</v>
+        <v>76.2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" s="2">
+        <v>59</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C13" s="2">
-        <v>307.8</v>
+        <v>474.2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" s="2">
+        <v>60</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>158.066666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
         <v>61</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="2">
-        <v>478.1</v>
+        <v>307.8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="2">
         <v>61</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="P14" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>102.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="2">
-        <v>399.9</v>
+        <v>478.1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="2">
-        <v>192133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O15" s="2">
+        <v>62</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>159.366666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C16" s="2">
-        <v>256.14</v>
+        <v>399.9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H16" s="2">
-        <v>140565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>192133</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="2">
+        <v>63</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>133.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C17" s="2">
-        <v>181.3</v>
+        <v>256.14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="H17" s="2">
-        <v>99900</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>140565</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="2">
+        <v>64</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>85.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C18" s="2">
-        <v>154</v>
+        <v>181.3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="2">
+        <v>99900</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="2">
+        <v>65</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>181.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
         <v>66</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="2">
-        <v>187600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="2">
-        <v>105.6</v>
+        <v>154</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="2">
+        <v>187600</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="2">
         <v>66</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="2">
-        <v>131200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="2">
+        <v>105.6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="2">
+        <v>131200</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="2">
+        <v>67</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1">
+        <v>68</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2">
         <v>110.8</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="2">
         <v>132000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
+      <c r="I21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="2">
+        <v>68</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
         <v>69</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="2">
         <v>89.7</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="D22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="2">
         <v>106800</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1713</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O22" s="2">
+        <v>69</v>
+      </c>
+      <c r="P22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>89.7</v>
       </c>
     </row>
   </sheetData>
@@ -3140,7 +3825,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3148,16 +3833,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -3166,574 +3851,595 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>253435</v>
+        <v>454643</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>148</v>
+      <c r="G3" s="2">
+        <v>253435</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>4352112</v>
+      <c r="G4" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>1029275</v>
+        <v>4352112</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>20073205</v>
+        <v>1029275</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>208389</v>
+        <v>20073205</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>651074</v>
+        <v>208389</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>257</v>
+        <v>651074</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>7235247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>34540360</v>
+        <v>7235247</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>1364309</v>
+        <v>34540360</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>94</v>
+        <v>1364309</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="2">
-        <v>16.8</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>497.45</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="2">
-        <v>577.04</v>
+        <v>16.8</v>
       </c>
       <c r="G15" s="2">
-        <v>17086.15</v>
+        <v>497.45</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>577.04</v>
+      </c>
       <c r="G16" s="2">
-        <v>195880</v>
+        <v>17086.15</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
-        <v>308259</v>
+        <v>195880</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
-        <v>50845184</v>
+        <v>308259</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
-        <v>559236</v>
+        <v>50845184</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
-        <v>653606</v>
+        <v>559236</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
-        <v>16407</v>
+        <v>653606</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
-        <v>373735</v>
+        <v>16407</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
-        <v>14251</v>
+        <v>373735</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
-        <v>16428</v>
+        <v>14251</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
-        <v>1288757</v>
+        <v>16428</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
-        <v>233</v>
+        <v>1288757</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2">
-        <v>23240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
+        <v>121</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>23240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>122</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="B29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="2">
         <v>1401.94</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G29" s="2">
         <v>41511.44</v>
       </c>
     </row>
@@ -3744,7 +4450,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3758,13 +4464,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3793,397 +4499,441 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2">
-        <v>620</v>
+        <v>78364</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G2" s="2">
-        <v>6200</v>
+        <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2">
         <v>1713</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N2" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2">
-        <v>803</v>
+        <v>620</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G3" s="2">
-        <v>8030</v>
+        <v>6200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" s="2">
         <v>1713</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N3" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>803</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G4" s="2">
-        <v>10</v>
+        <v>8030</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L4" s="2">
         <v>1713</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2">
-        <v>2839</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G5" s="2">
-        <v>28390</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" s="2">
         <v>1713</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N5" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2">
-        <v>3874</v>
+        <v>2839</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G6" s="2">
-        <v>38740</v>
+        <v>28390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" s="2">
         <v>1713</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N6" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2">
-        <v>56130</v>
+        <v>3874</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G7" s="2">
-        <v>561300</v>
+        <v>38740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L7" s="2">
         <v>1713</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N7" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2">
-        <v>217264</v>
+        <v>56130</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G8" s="2">
-        <v>2172640</v>
+        <v>561300</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" s="2">
         <v>1713</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N8" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2">
-        <v>3359</v>
+        <v>217264</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G9" s="2">
-        <v>33590</v>
+        <v>2172640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="2">
         <v>1713</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N9" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="2">
-        <v>25992</v>
+        <v>3359</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G10" s="2">
-        <v>259920</v>
+        <v>33590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L10" s="2">
         <v>1713</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N10" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>136</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2">
+        <v>25992</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="2">
+        <v>259920</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="2">
         <v>136</v>
       </c>
     </row>
@@ -4193,416 +4943,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>152</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>153</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>154</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>2150000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>160</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>162</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>163</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>164</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>165</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>166</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>167</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>168</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>169</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>170</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>171</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>172</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>173</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>174</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>175</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>176</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>177</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>178</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>179</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>180</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>181</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -4612,114 +4952,584 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>152</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>153</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>154</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>2150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>160</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>162</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>163</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>164</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>165</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>166</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>167</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>168</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>169</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>170</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>171</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>172</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>173</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>174</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>175</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>176</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>177</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>178</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>179</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>180</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>181</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1">
         <v>75000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E2" s="2">
-        <v>209000000</v>
+        <v>75000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2">
-        <v>13000000</v>
+        <v>209000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="E4" s="2">
+        <v>13000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
+        <v>190</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>191</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="2">
+        <v>195000000</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="E5" s="2">
-        <v>195000000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4729,7 +5539,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4737,252 +5547,275 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E1" s="1">
         <v>1600000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E2" s="2">
-        <v>30460</v>
+        <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E3" s="2">
-        <v>1222200</v>
+        <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E4" s="2">
-        <v>800000</v>
+        <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E5" s="2">
-        <v>300000</v>
+        <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E6" s="2">
-        <v>1000000</v>
+        <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E7" s="2">
-        <v>120000</v>
+        <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E8" s="2">
-        <v>134580</v>
+        <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E9" s="2">
-        <v>1000000</v>
+        <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E10" s="2">
-        <v>726600</v>
+        <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>209</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="2">
+        <v>726600</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>210</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="2">
         <v>200000</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>211</v>
+      <c r="F12" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="242">
   <si>
     <t>name</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>172064(超過五年）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>安泰商業銀行員林分行</t>
@@ -2731,7 +2734,7 @@
         <v>120</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>88</v>
@@ -2784,7 +2787,7 @@
         <v>121</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>88</v>
@@ -2837,7 +2840,7 @@
         <v>122</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>88</v>
@@ -2890,7 +2893,7 @@
         <v>123</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>88</v>
@@ -2943,7 +2946,7 @@
         <v>124</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>88</v>
@@ -2996,7 +2999,7 @@
         <v>125</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>88</v>
@@ -3049,7 +3052,7 @@
         <v>126</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>88</v>
@@ -3102,7 +3105,7 @@
         <v>125</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>88</v>
@@ -3155,7 +3158,7 @@
         <v>126</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>88</v>
@@ -3208,7 +3211,7 @@
         <v>125</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>88</v>
@@ -3261,7 +3264,7 @@
         <v>126</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>88</v>
@@ -3314,7 +3317,7 @@
         <v>127</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>88</v>
@@ -3367,7 +3370,7 @@
         <v>128</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>88</v>
@@ -3420,7 +3423,7 @@
         <v>129</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>88</v>
@@ -3473,7 +3476,7 @@
         <v>192133</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>88</v>
@@ -3526,7 +3529,7 @@
         <v>140565</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>88</v>
@@ -3579,7 +3582,7 @@
         <v>99900</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>88</v>
@@ -3632,7 +3635,7 @@
         <v>187600</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>88</v>
@@ -3685,7 +3688,7 @@
         <v>131200</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>88</v>
@@ -3738,7 +3741,7 @@
         <v>132000</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>88</v>
@@ -3791,7 +3794,7 @@
         <v>106800</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>88</v>
@@ -3833,13 +3836,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>52</v>
@@ -3854,13 +3857,13 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>52</v>
@@ -3875,13 +3878,13 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>52</v>
@@ -3896,20 +3899,20 @@
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3917,13 +3920,13 @@
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>52</v>
@@ -3938,13 +3941,13 @@
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>52</v>
@@ -3959,13 +3962,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>52</v>
@@ -3980,13 +3983,13 @@
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>52</v>
@@ -4001,13 +4004,13 @@
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>52</v>
@@ -4022,13 +4025,13 @@
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>52</v>
@@ -4043,13 +4046,13 @@
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>52</v>
@@ -4064,13 +4067,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>52</v>
@@ -4085,13 +4088,13 @@
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>52</v>
@@ -4106,13 +4109,13 @@
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>52</v>
@@ -4127,13 +4130,13 @@
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>52</v>
@@ -4150,13 +4153,13 @@
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>52</v>
@@ -4173,13 +4176,13 @@
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>53</v>
@@ -4194,13 +4197,13 @@
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>53</v>
@@ -4215,13 +4218,13 @@
         <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>53</v>
@@ -4236,13 +4239,13 @@
         <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>53</v>
@@ -4257,13 +4260,13 @@
         <v>114</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>53</v>
@@ -4278,13 +4281,13 @@
         <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
@@ -4299,13 +4302,13 @@
         <v>116</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>53</v>
@@ -4320,13 +4323,13 @@
         <v>117</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>53</v>
@@ -4341,13 +4344,13 @@
         <v>118</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>53</v>
@@ -4362,13 +4365,13 @@
         <v>119</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>53</v>
@@ -4383,13 +4386,13 @@
         <v>120</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>53</v>
@@ -4404,13 +4407,13 @@
         <v>121</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>53</v>
@@ -4425,13 +4428,13 @@
         <v>122</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>53</v>
@@ -4464,13 +4467,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -4502,7 +4505,7 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -4514,13 +4517,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2">
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>88</v>
@@ -4546,7 +4549,7 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
@@ -4558,13 +4561,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G3" s="2">
         <v>6200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>88</v>
@@ -4590,7 +4593,7 @@
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>52</v>
@@ -4602,13 +4605,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G4" s="2">
         <v>8030</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>88</v>
@@ -4634,7 +4637,7 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>52</v>
@@ -4646,13 +4649,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>88</v>
@@ -4678,7 +4681,7 @@
         <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
@@ -4690,13 +4693,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G6" s="2">
         <v>28390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>88</v>
@@ -4722,7 +4725,7 @@
         <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>52</v>
@@ -4734,13 +4737,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G7" s="2">
         <v>38740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>88</v>
@@ -4766,7 +4769,7 @@
         <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>52</v>
@@ -4778,13 +4781,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G8" s="2">
         <v>561300</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>88</v>
@@ -4810,7 +4813,7 @@
         <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
@@ -4822,13 +4825,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G9" s="2">
         <v>2172640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>88</v>
@@ -4854,7 +4857,7 @@
         <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
@@ -4866,13 +4869,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G10" s="2">
         <v>33590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>88</v>
@@ -4898,7 +4901,7 @@
         <v>136</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
@@ -4910,13 +4913,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G11" s="2">
         <v>259920</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>88</v>
@@ -4952,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>52</v>
@@ -4964,7 +4967,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1">
         <v>10</v>
@@ -4975,7 +4978,7 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -4990,7 +4993,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4998,14 +5001,14 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -5015,22 +5018,22 @@
         <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5038,7 +5041,7 @@
         <v>154</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -5067,10 +5070,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>52</v>
@@ -5081,10 +5084,10 @@
         <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>52</v>
@@ -5095,10 +5098,10 @@
         <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>52</v>
@@ -5109,10 +5112,10 @@
         <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>52</v>
@@ -5123,10 +5126,10 @@
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>52</v>
@@ -5137,10 +5140,10 @@
         <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>52</v>
@@ -5151,10 +5154,10 @@
         <v>165</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>52</v>
@@ -5165,10 +5168,10 @@
         <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>53</v>
@@ -5179,10 +5182,10 @@
         <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>53</v>
@@ -5193,10 +5196,10 @@
         <v>168</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -5207,10 +5210,10 @@
         <v>169</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>52</v>
@@ -5221,10 +5224,10 @@
         <v>170</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>52</v>
@@ -5235,10 +5238,10 @@
         <v>171</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>52</v>
@@ -5249,10 +5252,10 @@
         <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>52</v>
@@ -5263,10 +5266,10 @@
         <v>173</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>52</v>
@@ -5277,10 +5280,10 @@
         <v>174</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>53</v>
@@ -5291,10 +5294,10 @@
         <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>53</v>
@@ -5305,10 +5308,10 @@
         <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>53</v>
@@ -5319,10 +5322,10 @@
         <v>177</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>53</v>
@@ -5333,10 +5336,10 @@
         <v>178</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>53</v>
@@ -5347,10 +5350,10 @@
         <v>179</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>52</v>
@@ -5361,10 +5364,10 @@
         <v>180</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>52</v>
@@ -5375,10 +5378,10 @@
         <v>181</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>52</v>
@@ -5399,22 +5402,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1">
         <v>75000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5422,22 +5425,22 @@
         <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E2" s="2">
         <v>75000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5445,22 +5448,22 @@
         <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2">
         <v>209000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5468,22 +5471,22 @@
         <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E4" s="2">
         <v>13000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5491,22 +5494,22 @@
         <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5514,22 +5517,22 @@
         <v>191</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E6" s="2">
         <v>195000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5550,19 +5553,19 @@
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E1" s="1">
         <v>1600000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5573,19 +5576,19 @@
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5596,19 +5599,19 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5619,19 +5622,19 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5642,19 +5645,19 @@
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5665,19 +5668,19 @@
         <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5688,19 +5691,19 @@
         <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5711,19 +5714,19 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5734,19 +5737,19 @@
         <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5757,19 +5760,19 @@
         <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5780,19 +5783,19 @@
         <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5803,19 +5806,19 @@
         <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="244">
   <si>
     <t>name</t>
   </si>
@@ -416,79 +416,85 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>安泰商業銀行員林分行</t>
   </si>
   <si>
+    <t>聯邦商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行西螺分行</t>
+  </si>
+  <si>
+    <t>溪州郵局（第37支局）</t>
+  </si>
+  <si>
+    <t>彰化商業銀行北斗分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行松南分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>日盛國際商業銀行員林分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行員林分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行花壇分行</t>
+  </si>
+  <si>
+    <t>台中商業銀行北斗分行</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>其他存款</t>
+  </si>
+  <si>
+    <t>&gt;舌期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>聯邦商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行西螺分行</t>
-  </si>
-  <si>
-    <t>溪州郵局（第37支局）</t>
-  </si>
-  <si>
-    <t>彰化商業銀行北斗分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行松南分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行敦南分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>日盛國際商業銀行員林分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行員林分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行花壇分行</t>
-  </si>
-  <si>
-    <t>台中商業銀行北斗分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>其他存款</t>
-  </si>
-  <si>
-    <t>&gt;舌期存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>2978066</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>台灣水泥股份有限公司</t>
@@ -3828,13 +3834,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>131</v>
       </c>
@@ -3845,605 +3851,1179 @@
         <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>454643</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>454643</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>253435</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>97</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>2978066</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>155</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>98</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>4352112</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>99</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1029275</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>20073205</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>208389</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>651074</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>257</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>7235247</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>34540360</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>106</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>1364309</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>107</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>108</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="G15" s="2">
         <v>497.45</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>109</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="2">
-        <v>577.04</v>
-      </c>
-      <c r="G16" s="2">
         <v>17086.15</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>110</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>195880</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>111</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>308259</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>112</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>50845184</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>113</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>559236</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>114</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>653606</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>16407</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>116</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>373735</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>117</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>14251</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M24" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>118</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>16428</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>119</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="F26" s="2">
         <v>1288757</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="G26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M26" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>120</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>233</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="G27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>121</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
+      <c r="F28" s="2">
         <v>23240</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M28" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>122</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F29" s="2">
-        <v>1401.94</v>
-      </c>
-      <c r="G29" s="2">
         <v>41511.44</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1713</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M29" s="2">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4467,13 +5047,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -4505,7 +5085,7 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -4517,13 +5097,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G2" s="2">
         <v>783640</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>88</v>
@@ -4549,7 +5129,7 @@
         <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
@@ -4561,13 +5141,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2">
         <v>6200</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>88</v>
@@ -4593,7 +5173,7 @@
         <v>129</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>52</v>
@@ -4605,13 +5185,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G4" s="2">
         <v>8030</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>88</v>
@@ -4637,7 +5217,7 @@
         <v>130</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>52</v>
@@ -4649,13 +5229,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>88</v>
@@ -4681,7 +5261,7 @@
         <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
@@ -4693,13 +5273,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G6" s="2">
         <v>28390</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>88</v>
@@ -4725,7 +5305,7 @@
         <v>132</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>52</v>
@@ -4737,13 +5317,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G7" s="2">
         <v>38740</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>88</v>
@@ -4769,7 +5349,7 @@
         <v>133</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>52</v>
@@ -4781,13 +5361,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G8" s="2">
         <v>561300</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>88</v>
@@ -4813,7 +5393,7 @@
         <v>134</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>52</v>
@@ -4825,13 +5405,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G9" s="2">
         <v>2172640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>88</v>
@@ -4857,7 +5437,7 @@
         <v>135</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>52</v>
@@ -4869,13 +5449,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G10" s="2">
         <v>33590</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>88</v>
@@ -4901,7 +5481,7 @@
         <v>136</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
@@ -4913,13 +5493,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G11" s="2">
         <v>259920</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>88</v>
@@ -4955,7 +5535,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>52</v>
@@ -4967,7 +5547,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1">
         <v>10</v>
@@ -4978,7 +5558,7 @@
         <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
@@ -4993,7 +5573,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5001,14 +5581,14 @@
         <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -5018,22 +5598,22 @@
         <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5041,7 +5621,7 @@
         <v>154</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -5070,10 +5650,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>52</v>
@@ -5084,10 +5664,10 @@
         <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>52</v>
@@ -5098,10 +5678,10 @@
         <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>52</v>
@@ -5112,10 +5692,10 @@
         <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>52</v>
@@ -5126,10 +5706,10 @@
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>52</v>
@@ -5140,10 +5720,10 @@
         <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>52</v>
@@ -5154,10 +5734,10 @@
         <v>165</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>52</v>
@@ -5168,10 +5748,10 @@
         <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>53</v>
@@ -5182,10 +5762,10 @@
         <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>53</v>
@@ -5196,10 +5776,10 @@
         <v>168</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -5210,10 +5790,10 @@
         <v>169</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>52</v>
@@ -5224,10 +5804,10 @@
         <v>170</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>52</v>
@@ -5238,10 +5818,10 @@
         <v>171</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>52</v>
@@ -5252,10 +5832,10 @@
         <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>52</v>
@@ -5266,10 +5846,10 @@
         <v>173</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>52</v>
@@ -5280,10 +5860,10 @@
         <v>174</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>53</v>
@@ -5294,10 +5874,10 @@
         <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>53</v>
@@ -5308,10 +5888,10 @@
         <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>53</v>
@@ -5322,10 +5902,10 @@
         <v>177</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>53</v>
@@ -5336,10 +5916,10 @@
         <v>178</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>53</v>
@@ -5350,10 +5930,10 @@
         <v>179</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>52</v>
@@ -5364,10 +5944,10 @@
         <v>180</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>52</v>
@@ -5378,10 +5958,10 @@
         <v>181</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>52</v>
@@ -5402,22 +5982,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E1" s="1">
         <v>75000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5425,22 +6005,22 @@
         <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E2" s="2">
         <v>75000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5448,22 +6028,22 @@
         <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E3" s="2">
         <v>209000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5471,22 +6051,22 @@
         <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E4" s="2">
         <v>13000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5494,22 +6074,22 @@
         <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5517,22 +6097,22 @@
         <v>191</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E6" s="2">
         <v>195000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5553,19 +6133,19 @@
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E1" s="1">
         <v>1600000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5576,19 +6156,19 @@
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5599,19 +6179,19 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5622,19 +6202,19 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5645,19 +6225,19 @@
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5668,19 +6248,19 @@
         <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5691,19 +6271,19 @@
         <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5714,19 +6294,19 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5737,19 +6317,19 @@
         <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5760,19 +6340,19 @@
         <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -5783,19 +6363,19 @@
         <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5806,19 +6386,19 @@
         <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
@@ -12,16 +12,17 @@
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
     <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="債權" sheetId="7" r:id="rId7"/>
-    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
+    <sheet name="珠寶、古董、字畫" sheetId="6" r:id="rId6"/>
+    <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="債權" sheetId="8" r:id="rId8"/>
+    <sheet name="事業投資" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="236">
   <si>
     <t>name</t>
   </si>
@@ -533,34 +534,10 @@
     <t>山隆通運股份有限公司</t>
   </si>
   <si>
-    <t>(九）珠寶古董字畫及事</t>
-  </si>
-  <si>
-    <t>財產種類</t>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>珠寶</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>m:新臺幣2150000元）</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>價</t>
   </si>
   <si>
     <t>新光人壽</t>
@@ -5527,33 +5504,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>150</v>
       </c>
@@ -5569,70 +5567,32 @@
       <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="2">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>152</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>153</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>154</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>2150000</v>
+      <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5641,6 +5601,92 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>154</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2150000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="2">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -5650,10 +5696,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>52</v>
@@ -5664,10 +5710,10 @@
         <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>52</v>
@@ -5678,10 +5724,10 @@
         <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>52</v>
@@ -5692,10 +5738,10 @@
         <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>52</v>
@@ -5706,10 +5752,10 @@
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>52</v>
@@ -5720,10 +5766,10 @@
         <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>52</v>
@@ -5734,10 +5780,10 @@
         <v>165</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>52</v>
@@ -5748,10 +5794,10 @@
         <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>53</v>
@@ -5762,10 +5808,10 @@
         <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>53</v>
@@ -5776,10 +5822,10 @@
         <v>168</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -5790,10 +5836,10 @@
         <v>169</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>52</v>
@@ -5804,10 +5850,10 @@
         <v>170</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>52</v>
@@ -5818,10 +5864,10 @@
         <v>171</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>52</v>
@@ -5832,10 +5878,10 @@
         <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>52</v>
@@ -5846,10 +5892,10 @@
         <v>173</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>52</v>
@@ -5860,10 +5906,10 @@
         <v>174</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>53</v>
@@ -5874,10 +5920,10 @@
         <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>53</v>
@@ -5888,10 +5934,10 @@
         <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>53</v>
@@ -5902,10 +5948,10 @@
         <v>177</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>53</v>
@@ -5916,10 +5962,10 @@
         <v>178</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>53</v>
@@ -5930,10 +5976,10 @@
         <v>179</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>52</v>
@@ -5944,10 +5990,10 @@
         <v>180</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>52</v>
@@ -5958,10 +6004,10 @@
         <v>181</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>52</v>
@@ -5972,7 +6018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -5982,22 +6028,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1">
         <v>75000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6005,22 +6051,22 @@
         <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E2" s="2">
         <v>75000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6028,22 +6074,22 @@
         <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E3" s="2">
         <v>209000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6051,22 +6097,22 @@
         <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E4" s="2">
         <v>13000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6074,22 +6120,22 @@
         <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6097,22 +6143,22 @@
         <v>191</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E6" s="2">
         <v>195000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6120,7 +6166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -6133,19 +6179,19 @@
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E1" s="1">
         <v>1600000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -6156,19 +6202,19 @@
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6179,19 +6225,19 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6202,19 +6248,19 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6225,19 +6271,19 @@
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6248,19 +6294,19 @@
         <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6271,19 +6317,19 @@
         <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6294,19 +6340,19 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6317,19 +6363,19 @@
         <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6340,19 +6386,19 @@
         <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6363,19 +6409,19 @@
         <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6386,19 +6432,19 @@
         <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
+++ b/legislator/property/output/normal/鄭汝芬_2012-02-01_財產申報表_tmpbc031.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="243">
   <si>
     <t>name</t>
   </si>
@@ -540,27 +540,33 @@
     <t>珠寶</t>
   </si>
   <si>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>新光人壽</t>
   </si>
   <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>三商美邦人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
     <t>真意終身還本保險</t>
   </si>
   <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>三商美邦人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
     <t>百年長青睛身壽險</t>
   </si>
   <si>
@@ -603,133 +609,148 @@
     <t>終身還本二年型</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>借款</t>
   </si>
   <si>
     <t>隆霖網路科技股份有限公司彰化縣溪州鄉慶平路30號2樓</t>
   </si>
   <si>
+    <t>隆霖網路科技股份有限公司彰化縣溪州鄉慶平路30號1樓</t>
+  </si>
+  <si>
+    <t>隆霖多媒體科技股份有限公司彰化縣溪州郷慶平路28號2樓</t>
+  </si>
+  <si>
+    <t>全家福通訊科技股份有限公司彰化縣溪州鄉中山路3段270巷11號1樓</t>
+  </si>
+  <si>
+    <t>隆立營造股份有限公司彰化縣溪州鄕進元路10號</t>
+  </si>
+  <si>
     <t>98年07月27日</t>
   </si>
   <si>
+    <t>100年03月10日</t>
+  </si>
+  <si>
+    <t>100年09月26日</t>
+  </si>
+  <si>
+    <t>100年12月19日</t>
+  </si>
+  <si>
+    <t>97年09月23日</t>
+  </si>
+  <si>
     <t>借貸</t>
   </si>
   <si>
-    <t>隆霖網路科技股份有限公司彰化縣溪州鄉慶平路30號1樓</t>
-  </si>
-  <si>
-    <t>隆霖多媒體科技股份有限公司彰化縣溪州郷慶平路28號2樓</t>
-  </si>
-  <si>
-    <t>全家福通訊科技股份有限公司彰化縣溪州鄉中山路3段270巷11號1樓</t>
-  </si>
-  <si>
-    <t>隆立營造股份有限公司彰化縣溪州鄕進元路10號</t>
-  </si>
-  <si>
-    <t>747000000</t>
-  </si>
-  <si>
-    <t>100年03月10日</t>
-  </si>
-  <si>
-    <t>100年09月26日</t>
-  </si>
-  <si>
-    <t>100年12月19日</t>
-  </si>
-  <si>
-    <t>97年09月23日</t>
-  </si>
-  <si>
     <t>股東往來</t>
   </si>
   <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>任豐企業股份有限公司</t>
   </si>
   <si>
+    <t>聯華電信股份有限公司</t>
+  </si>
+  <si>
+    <t>威寶電信股份有限公司</t>
+  </si>
+  <si>
+    <t>埤頭液化煤氣行</t>
+  </si>
+  <si>
+    <t>豐宜實業股份有限公司</t>
+  </si>
+  <si>
+    <t>六八煤氣行</t>
+  </si>
+  <si>
+    <t>亞太電信股份有限公司</t>
+  </si>
+  <si>
+    <t>全家福通訊科技股份有限公司</t>
+  </si>
+  <si>
     <t>彰化縣西德里舜耕路47號</t>
   </si>
   <si>
+    <t>臺北市八德路2段232號4樓</t>
+  </si>
+  <si>
+    <t>臺北市瑞光路358巷36號5樓</t>
+  </si>
+  <si>
+    <t>彰縣西德里舜耕路47號</t>
+  </si>
+  <si>
+    <t>彰化縣復興路12號</t>
+  </si>
+  <si>
+    <t>高雄市崙北巷11號</t>
+  </si>
+  <si>
+    <t>彰化縣慶平路83號</t>
+  </si>
+  <si>
+    <t>臺北市經貿二路66號12樓</t>
+  </si>
+  <si>
+    <t>彰化縣中山路3段270巷11號1樓</t>
+  </si>
+  <si>
     <t>78年04月20日</t>
   </si>
   <si>
+    <t>94年01月13日</t>
+  </si>
+  <si>
+    <t>94年02月02日</t>
+  </si>
+  <si>
+    <t>72年04月18日</t>
+  </si>
+  <si>
+    <t>86年02月19日</t>
+  </si>
+  <si>
+    <t>91年10月23日</t>
+  </si>
+  <si>
+    <t>74年04月20日</t>
+  </si>
+  <si>
+    <t>94年01月13曰</t>
+  </si>
+  <si>
+    <t>97年12月31日</t>
+  </si>
+  <si>
+    <t>98年05月19日</t>
+  </si>
+  <si>
     <t>合資</t>
   </si>
   <si>
-    <t>聯華電信股份有限公司</t>
-  </si>
-  <si>
-    <t>威寶電信股份有限公司</t>
-  </si>
-  <si>
-    <t>埤頭液化煤氣行</t>
-  </si>
-  <si>
-    <t>豐宜實業股份有限公司</t>
-  </si>
-  <si>
-    <t>六八煤氣行</t>
-  </si>
-  <si>
-    <t>亞太電信股份有限公司</t>
-  </si>
-  <si>
-    <t>全家福通訊科技股份有限公司</t>
-  </si>
-  <si>
-    <t>臺北市八德路2段232號4樓</t>
-  </si>
-  <si>
-    <t>臺北市瑞光路358巷36號5樓</t>
-  </si>
-  <si>
-    <t>彰縣西德里舜耕路47號</t>
-  </si>
-  <si>
-    <t>彰化縣復興路12號</t>
-  </si>
-  <si>
-    <t>高雄市崙北巷11號</t>
-  </si>
-  <si>
-    <t>彰化縣慶平路83號</t>
-  </si>
-  <si>
-    <t>臺北市經貿二路66號12樓</t>
-  </si>
-  <si>
-    <t>彰化縣中山路3段270巷11號1樓</t>
-  </si>
-  <si>
-    <t>94年01月13日</t>
-  </si>
-  <si>
-    <t>94年02月02日</t>
-  </si>
-  <si>
-    <t>72年04月18日</t>
-  </si>
-  <si>
-    <t>86年02月19日</t>
-  </si>
-  <si>
-    <t>91年10月23日</t>
-  </si>
-  <si>
-    <t>74年04月20日</t>
-  </si>
-  <si>
-    <t>94年01月13曰</t>
-  </si>
-  <si>
-    <t>97年12月31日</t>
-  </si>
-  <si>
-    <t>98年05月19日</t>
-  </si>
-  <si>
     <t>合夥</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -5660,7 +5681,7 @@
         <v>2150000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>88</v>
@@ -5688,329 +5709,812 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>164</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>165</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>168</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>169</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>170</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>171</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>172</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>173</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>174</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K17" s="2">
         <v>175</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>177</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>178</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K20" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>179</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>180</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>181</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1713</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K23" s="2">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6020,145 +6524,271 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="1">
-        <v>75000000</v>
+        <v>197</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E2" s="2">
         <v>75000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>209</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>187</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E3" s="2">
         <v>209000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>209</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>188</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E4" s="2">
         <v>13000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>209</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="E5" s="2">
+        <v>747000000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>210</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>191</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E6" s="2">
         <v>195000000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="2">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6168,33 +6798,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1600000</v>
+        <v>212</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>200</v>
       </c>
@@ -6202,22 +6853,43 @@
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="E2" s="2">
         <v>1600000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>240</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>201</v>
       </c>
@@ -6225,22 +6897,43 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E3" s="2">
         <v>30460</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>240</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>202</v>
       </c>
@@ -6248,22 +6941,43 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E4" s="2">
         <v>1222200</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>240</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>203</v>
       </c>
@@ -6271,22 +6985,43 @@
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E5" s="2">
         <v>800000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>240</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>204</v>
       </c>
@@ -6294,22 +7029,43 @@
         <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E6" s="2">
         <v>300000</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>241</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>205</v>
       </c>
@@ -6317,22 +7073,43 @@
         <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E7" s="2">
         <v>1000000</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>240</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>206</v>
       </c>
@@ -6340,22 +7117,43 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E8" s="2">
         <v>120000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>241</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>207</v>
       </c>
@@ -6363,22 +7161,43 @@
         <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E9" s="2">
         <v>134580</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>240</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N9" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>208</v>
       </c>
@@ -6386,22 +7205,43 @@
         <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E10" s="2">
         <v>1000000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>240</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>209</v>
       </c>
@@ -6409,22 +7249,43 @@
         <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E11" s="2">
         <v>726600</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>240</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>210</v>
       </c>
@@ -6432,18 +7293,39 @@
         <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E12" s="2">
         <v>200000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1713</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="2">
         <v>210</v>
       </c>
     </row>
